--- a/VereinsDaten.xlsx
+++ b/VereinsDaten.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>team_name</t>
   </si>
@@ -22,10 +22,16 @@
     <t>team_trainer</t>
   </si>
   <si>
+    <t>team_logo</t>
+  </si>
+  <si>
     <t>Hells Teddies</t>
   </si>
   <si>
     <t>test trainer</t>
+  </si>
+  <si>
+    <t>/Team-logos/logo1.png</t>
   </si>
   <si>
     <t>PPL</t>
@@ -313,7 +319,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -339,23 +347,29 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>2013.0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>2018.0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/VereinsDaten.xlsx
+++ b/VereinsDaten.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>team_name</t>
   </si>
@@ -25,6 +25,9 @@
     <t>team_logo</t>
   </si>
   <si>
+    <t>location_name</t>
+  </si>
+  <si>
     <t>Hells Teddies</t>
   </si>
   <si>
@@ -34,10 +37,64 @@
     <t>/Team-logos/logo1.png</t>
   </si>
   <si>
+    <t>Ulaanbaatar</t>
+  </si>
+  <si>
     <t>PPL</t>
   </si>
   <si>
     <t>prfkps</t>
+  </si>
+  <si>
+    <t>/Team-logos/logo3.png</t>
+  </si>
+  <si>
+    <t>Lisma</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>florian</t>
+  </si>
+  <si>
+    <t>/Team-logos/logo2.jpg</t>
+  </si>
+  <si>
+    <t>Gusswerk</t>
+  </si>
+  <si>
+    <t>Valantic</t>
+  </si>
+  <si>
+    <t>johanna</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>New Team</t>
+  </si>
+  <si>
+    <t>new trainer</t>
+  </si>
+  <si>
+    <t>/Team-logos/logo4.jpg</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Alchimiste</t>
+  </si>
+  <si>
+    <t>dirk</t>
+  </si>
+  <si>
+    <t>/Team-logos/logo5.jpg</t>
+  </si>
+  <si>
+    <t>Bergstrasse</t>
   </si>
 </sst>
 </file>
@@ -306,7 +363,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="10.38"/>
     <col customWidth="1" min="2" max="2" width="16.5"/>
-    <col customWidth="1" min="3" max="4" width="11.13"/>
+    <col customWidth="1" min="3" max="3" width="11.13"/>
+    <col customWidth="1" min="4" max="4" width="17.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -322,7 +380,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -347,30 +407,104 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>2013.0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>2018.0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2002.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2024.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
